--- a/v3/example/xlsx/Type.xlsx
+++ b/v3/example/xlsx/Type.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\opensource\src\github.com\davyxu\tabtoy\v3\example\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="15000"/>
+    <workbookView windowWidth="24225" windowHeight="14910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,6 +37,9 @@
     <t>值</t>
   </si>
   <si>
+    <t>索引</t>
+  </si>
+  <si>
     <t>表头</t>
   </si>
   <si>
@@ -57,6 +55,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
@@ -121,21 +122,19 @@
   </si>
   <si>
     <t>Mercy</t>
-  </si>
-  <si>
-    <t>索引</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +155,157 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,12 +314,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -199,9 +528,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -219,17 +790,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -487,19 +1102,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -507,7 +1122,7 @@
     <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,218 +1145,218 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" ht="16.5" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" ht="16.5" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" ht="16.5" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -749,8 +1364,8 @@
       <c r="E14" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/v3/example/xlsx/Type.xlsx
+++ b/v3/example/xlsx/Type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="14910"/>
+    <workbookView windowWidth="16590" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>种类</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>|</t>
+  </si>
+  <si>
+    <t>增益</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>本字段用于测试二进制向后兼容性</t>
+  </si>
+  <si>
+    <t>标记</t>
+  </si>
+  <si>
+    <t>TagList</t>
   </si>
   <si>
     <t>枚举</t>
@@ -129,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -156,50 +171,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -213,8 +205,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,70 +251,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,6 +296,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -320,187 +335,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,26 +555,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,15 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,17 +618,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,148 +646,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,13 +1123,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1244,117 +1259,145 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
+      <c r="G7" s="3"/>
+      <c r="I7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
     </row>
     <row r="14" ht="16.5" spans="1:5">
       <c r="A14" s="3"/>
@@ -1363,6 +1406,20 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
+    <row r="15" ht="16.5" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/v3/example/xlsx/Type.xlsx
+++ b/v3/example/xlsx/Type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16590" windowHeight="6510"/>
+    <workbookView windowWidth="16560" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>种类</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>Mercy</t>
+  </si>
+  <si>
+    <t>ExtendData</t>
+  </si>
+  <si>
+    <t>附加</t>
+  </si>
+  <si>
+    <t>Additive</t>
   </si>
 </sst>
 </file>
@@ -144,8 +153,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -170,12 +179,88 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -183,8 +268,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,122 +316,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,19 +344,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +464,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,31 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,109 +512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,26 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -579,15 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -599,6 +579,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,148 +655,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,7 +1135,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1399,12 +1408,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+    <row r="14" ht="16.5" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" ht="16.5" spans="1:5">
       <c r="A15" s="3"/>

--- a/v3/example/xlsx/Type.xlsx
+++ b/v3/example/xlsx/Type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16560" windowHeight="6510"/>
+    <workbookView windowWidth="19830" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>种类</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>TagList</t>
+  </si>
+  <si>
+    <t>多列</t>
+  </si>
+  <si>
+    <t>Multi</t>
   </si>
   <si>
     <t>枚举</t>
@@ -153,8 +159,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -179,40 +185,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,6 +214,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -233,46 +239,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,24 +304,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,14 +329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,43 +350,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,13 +488,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,121 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,41 +559,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,17 +572,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -627,11 +592,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,157 +630,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,6 +817,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,10 +1144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1172,7 +1184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:8">
+    <row r="2" ht="16.5" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1182,18 +1194,22 @@
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:7">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1203,15 +1219,20 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1221,15 +1242,20 @@
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:7">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1239,15 +1265,20 @@
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:7">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1257,18 +1288,22 @@
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:9">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:11">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1278,18 +1313,22 @@
       <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="I7" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:11">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1299,58 +1338,72 @@
       <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="3" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:7">
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:11">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:11">
+      <c r="A11" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
@@ -1358,19 +1411,24 @@
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:7">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
@@ -1378,19 +1436,24 @@
       <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:7">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
@@ -1398,42 +1461,70 @@
       <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="3">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:11">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:9">
-      <c r="A14" s="3" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:11">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I14" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" ht="16.5" spans="1:5">
       <c r="A16" s="3"/>
@@ -1442,6 +1533,13 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
+    <row r="17" ht="16.5" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/v3/example/xlsx/Type.xlsx
+++ b/v3/example/xlsx/Type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19830" windowHeight="6375"/>
+    <workbookView windowWidth="30048" windowHeight="13728"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>种类</t>
   </si>
@@ -73,85 +73,88 @@
     <t>Rate</t>
   </si>
   <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ActorType</t>
+  </si>
+  <si>
+    <t>技能列表</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>增益</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>本字段用于测试二进制向后兼容性</t>
+  </si>
+  <si>
+    <t>标记</t>
+  </si>
+  <si>
+    <t>TagList</t>
+  </si>
+  <si>
+    <t>多列</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>枚举</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>法鸡</t>
+  </si>
+  <si>
+    <t>Pharah</t>
+  </si>
+  <si>
+    <t>狂鼠</t>
+  </si>
+  <si>
+    <t>Junkrat</t>
+  </si>
+  <si>
+    <t>源氏</t>
+  </si>
+  <si>
+    <t>Genji</t>
+  </si>
+  <si>
+    <t>天使</t>
+  </si>
+  <si>
+    <t>Mercy</t>
+  </si>
+  <si>
+    <t>ExtendData</t>
+  </si>
+  <si>
+    <t>附加</t>
+  </si>
+  <si>
+    <t>Additive</t>
+  </si>
+  <si>
     <t>float</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>ActorType</t>
-  </si>
-  <si>
-    <t>技能列表</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>增益</t>
-  </si>
-  <si>
-    <t>Buff</t>
-  </si>
-  <si>
-    <t>本字段用于测试二进制向后兼容性</t>
-  </si>
-  <si>
-    <t>标记</t>
-  </si>
-  <si>
-    <t>TagList</t>
-  </si>
-  <si>
-    <t>多列</t>
-  </si>
-  <si>
-    <t>Multi</t>
-  </si>
-  <si>
-    <t>枚举</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>法鸡</t>
-  </si>
-  <si>
-    <t>Pharah</t>
-  </si>
-  <si>
-    <t>狂鼠</t>
-  </si>
-  <si>
-    <t>Junkrat</t>
-  </si>
-  <si>
-    <t>源氏</t>
-  </si>
-  <si>
-    <t>Genji</t>
-  </si>
-  <si>
-    <t>天使</t>
-  </si>
-  <si>
-    <t>Mercy</t>
-  </si>
-  <si>
-    <t>ExtendData</t>
-  </si>
-  <si>
-    <t>附加</t>
-  </si>
-  <si>
-    <t>Additive</t>
   </si>
 </sst>
 </file>
@@ -192,17 +195,116 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,122 +316,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,187 +353,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,24 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -592,6 +577,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -603,30 +597,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +626,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -664,10 +667,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,137 +679,137 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,9 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1147,18 +1147,18 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:11">
+    <row r="2" ht="15.6" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1194,22 +1194,22 @@
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:11">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" ht="15.6" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1219,20 +1219,20 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:11">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1242,20 +1242,20 @@
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:11">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1265,20 +1265,20 @@
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:11">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1288,22 +1288,22 @@
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:11">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:11">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1313,22 +1313,22 @@
       <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:11">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:11">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1338,47 +1338,47 @@
       <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:11">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:11">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:11">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -1386,22 +1386,22 @@
         <v>22</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:11">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -1411,22 +1411,22 @@
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:11">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:11">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -1436,22 +1436,22 @@
       <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:11">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1461,22 +1461,22 @@
       <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:11">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" ht="15.6" spans="1:11">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -1486,22 +1486,22 @@
       <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
         <v>4</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:11">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" ht="15.6" spans="1:11">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1511,29 +1511,29 @@
       <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
+      <c r="E15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:5">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" ht="15.6" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
+    <row r="17" ht="15.6" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>

--- a/v3/example/xlsx/Type.xlsx
+++ b/v3/example/xlsx/Type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>种类</t>
   </si>
@@ -73,6 +73,15 @@
     <t>Rate</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>精度</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
     <t>double</t>
   </si>
   <si>
@@ -152,9 +161,6 @@
   </si>
   <si>
     <t>Additive</t>
-  </si>
-  <si>
-    <t>float</t>
   </si>
 </sst>
 </file>
@@ -162,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -201,28 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -231,8 +215,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -240,23 +239,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,61 +307,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,187 +359,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,51 +568,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -627,11 +592,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,10 +673,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,133 +685,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1292,11 +1298,9 @@
         <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1319,12 +1323,12 @@
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
@@ -1342,35 +1346,35 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" ht="15.6" spans="1:11">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1379,23 +1383,25 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" ht="15.6" spans="1:11">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3"/>
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1403,23 +1409,21 @@
     </row>
     <row r="11" ht="15.6" spans="1:11">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1428,23 +1432,23 @@
     </row>
     <row r="12" ht="15.6" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1453,23 +1457,23 @@
     </row>
     <row r="13" ht="15.6" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1478,23 +1482,23 @@
     </row>
     <row r="14" ht="15.6" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1503,10 +1507,10 @@
     </row>
     <row r="15" ht="15.6" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>44</v>
@@ -1515,23 +1519,41 @@
         <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" ht="15.6" spans="1:5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+    <row r="16" ht="15.6" spans="1:11">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" ht="15.6" spans="1:5">
       <c r="A17" s="3"/>
@@ -1540,6 +1562,13 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
+    <row r="18" ht="15.6" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/v3/example/xlsx/Type.xlsx
+++ b/v3/example/xlsx/Type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13728"/>
+    <workbookView windowWidth="28125" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>种类</t>
   </si>
@@ -40,6 +40,9 @@
     <t>索引</t>
   </si>
   <si>
+    <t>标记</t>
+  </si>
+  <si>
     <t>表头</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
   </si>
   <si>
     <t>本字段用于测试二进制向后兼容性</t>
-  </si>
-  <si>
-    <t>标记</t>
   </si>
   <si>
     <t>TagList</t>
@@ -168,9 +168,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -200,8 +200,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,79 +223,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,12 +248,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -321,24 +322,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,25 +359,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,25 +461,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,127 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,28 +592,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,8 +604,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,9 +627,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,10 +673,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,133 +685,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,18 +1153,18 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="11.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1189,47 +1189,50 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="15.6" spans="1:11">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" ht="15.6" spans="1:11">
+    <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1238,21 +1241,21 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" ht="15.6" spans="1:11">
+    <row r="4" ht="16.5" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1261,21 +1264,21 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" ht="15.6" spans="1:11">
+    <row r="5" ht="16.5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1284,21 +1287,21 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" ht="15.6" spans="1:11">
+    <row r="6" ht="16.5" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1307,24 +1310,24 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" ht="15.6" spans="1:11">
+    <row r="7" ht="16.5" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1332,49 +1335,49 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" ht="15.6" spans="1:11">
+    <row r="8" ht="16.5" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" ht="15.6" spans="1:11">
+    <row r="9" ht="16.5" spans="1:11">
       <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1382,12 +1385,12 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="15.6" spans="1:11">
+    <row r="10" ht="16.5" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>34</v>
@@ -1396,10 +1399,10 @@
         <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1407,19 +1410,19 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" ht="15.6" spans="1:11">
+    <row r="11" ht="16.5" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
@@ -1430,12 +1433,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" ht="15.6" spans="1:11">
+    <row r="12" ht="16.5" spans="1:11">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>38</v>
@@ -1444,7 +1447,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
@@ -1455,12 +1458,12 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" ht="15.6" spans="1:11">
+    <row r="13" ht="16.5" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>40</v>
@@ -1469,7 +1472,7 @@
         <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
@@ -1480,12 +1483,12 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" ht="15.6" spans="1:11">
+    <row r="14" ht="16.5" spans="1:11">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
@@ -1494,7 +1497,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
@@ -1505,12 +1508,12 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" ht="15.6" spans="1:11">
+    <row r="15" ht="16.5" spans="1:11">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>44</v>
@@ -1519,7 +1522,7 @@
         <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
@@ -1530,9 +1533,9 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" ht="15.6" spans="1:11">
+    <row r="16" ht="16.5" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>46</v>
@@ -1544,25 +1547,24 @@
         <v>48</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" ht="15.6" spans="1:5">
+    <row r="17" ht="16.5" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="15.6" spans="1:5">
+    <row r="18" ht="16.5" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>

--- a/v3/example/xlsx/Type.xlsx
+++ b/v3/example/xlsx/Type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13110"/>
+    <workbookView windowWidth="17580" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>种类</t>
   </si>
@@ -61,6 +61,12 @@
     <t>是</t>
   </si>
   <si>
+    <t>任务ID2</t>
+  </si>
+  <si>
+    <t>ID2</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
@@ -161,6 +167,12 @@
   </si>
   <si>
     <t>Additive</t>
+  </si>
+  <si>
+    <t>索引2</t>
+  </si>
+  <si>
+    <t>Index2</t>
   </si>
 </sst>
 </file>
@@ -169,9 +181,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -201,21 +213,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -225,6 +222,87 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -241,104 +319,38 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,13 +371,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,169 +455,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,35 +589,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,13 +615,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,21 +677,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -673,10 +685,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,133 +697,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1232,11 +1244,13 @@
         <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1249,13 +1263,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1272,13 +1286,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1295,13 +1309,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1318,17 +1332,15 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1343,21 +1355,21 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" ht="16.5" spans="1:11">
@@ -1368,41 +1380,41 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" ht="16.5" spans="1:11">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1411,23 +1423,25 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" ht="16.5" spans="1:11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1435,14 +1449,12 @@
     </row>
     <row r="12" ht="16.5" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1451,7 +1463,7 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1460,10 +1472,10 @@
     </row>
     <row r="13" ht="16.5" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>40</v>
@@ -1476,7 +1488,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1485,10 +1497,10 @@
     </row>
     <row r="14" ht="16.5" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
@@ -1501,7 +1513,7 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1510,10 +1522,10 @@
     </row>
     <row r="15" ht="16.5" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>44</v>
@@ -1526,7 +1538,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1535,41 +1547,79 @@
     </row>
     <row r="16" ht="16.5" spans="1:11">
       <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:11">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
